--- a/ProyectoFinal/05 Poblacion/departamento.xlsx
+++ b/ProyectoFinal/05 Poblacion/departamento.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="123">
   <si>
     <t>numRegistro</t>
   </si>
@@ -54,9 +54,6 @@
     <t>estadoDeConstruccion</t>
   </si>
   <si>
-    <t>fConstruccion</t>
-  </si>
-  <si>
     <t>ubicadoEnPiso</t>
   </si>
   <si>
@@ -66,195 +63,6 @@
     <t>Mantenimientoanual</t>
   </si>
   <si>
-    <t>07/18/2007</t>
-  </si>
-  <si>
-    <t>10/30/1974</t>
-  </si>
-  <si>
-    <t>04/30/1910</t>
-  </si>
-  <si>
-    <t>11/27/1932</t>
-  </si>
-  <si>
-    <t>02/26/1961</t>
-  </si>
-  <si>
-    <t>06/25/2004</t>
-  </si>
-  <si>
-    <t>06/14/1943</t>
-  </si>
-  <si>
-    <t>06/21/1947</t>
-  </si>
-  <si>
-    <t>08/28/1918</t>
-  </si>
-  <si>
-    <t>07/17/1966</t>
-  </si>
-  <si>
-    <t>11/24/2002</t>
-  </si>
-  <si>
-    <t>01/22/1974</t>
-  </si>
-  <si>
-    <t>07/17/1958</t>
-  </si>
-  <si>
-    <t>01/23/1971</t>
-  </si>
-  <si>
-    <t>11/30/1910</t>
-  </si>
-  <si>
-    <t>10/19/1993</t>
-  </si>
-  <si>
-    <t>03/31/1997</t>
-  </si>
-  <si>
-    <t>10/20/1973</t>
-  </si>
-  <si>
-    <t>12/15/2018</t>
-  </si>
-  <si>
-    <t>04/30/1971</t>
-  </si>
-  <si>
-    <t>06/27/1987</t>
-  </si>
-  <si>
-    <t>05/22/1982</t>
-  </si>
-  <si>
-    <t>02/18/2011</t>
-  </si>
-  <si>
-    <t>06/24/1925</t>
-  </si>
-  <si>
-    <t>11/28/1941</t>
-  </si>
-  <si>
-    <t>06/27/1997</t>
-  </si>
-  <si>
-    <t>03/27/1991</t>
-  </si>
-  <si>
-    <t>07/29/1950</t>
-  </si>
-  <si>
-    <t>01/25/1905</t>
-  </si>
-  <si>
-    <t>06/26/2015</t>
-  </si>
-  <si>
-    <t>01/27/1964</t>
-  </si>
-  <si>
-    <t>03/20/1903</t>
-  </si>
-  <si>
-    <t>02/24/2012</t>
-  </si>
-  <si>
-    <t>07/18/1968</t>
-  </si>
-  <si>
-    <t>11/28/1917</t>
-  </si>
-  <si>
-    <t>07/18/1955</t>
-  </si>
-  <si>
-    <t>01/23/1962</t>
-  </si>
-  <si>
-    <t>03/31/1925</t>
-  </si>
-  <si>
-    <t>07/28/1968</t>
-  </si>
-  <si>
-    <t>02/20/1929</t>
-  </si>
-  <si>
-    <t>12/30/1994</t>
-  </si>
-  <si>
-    <t>01/13/1931</t>
-  </si>
-  <si>
-    <t>10/15/1918</t>
-  </si>
-  <si>
-    <t>04/22/2003</t>
-  </si>
-  <si>
-    <t>10/24/1938</t>
-  </si>
-  <si>
-    <t>12/30/2007</t>
-  </si>
-  <si>
-    <t>07/28/1914</t>
-  </si>
-  <si>
-    <t>11/15/1972</t>
-  </si>
-  <si>
-    <t>08/31/1970</t>
-  </si>
-  <si>
-    <t>07/20/1925</t>
-  </si>
-  <si>
-    <t>04/22/2011</t>
-  </si>
-  <si>
-    <t>08/20/1970</t>
-  </si>
-  <si>
-    <t>04/16/2000</t>
-  </si>
-  <si>
-    <t>10/19/1958</t>
-  </si>
-  <si>
-    <t>07/28/1916</t>
-  </si>
-  <si>
-    <t>02/15/1942</t>
-  </si>
-  <si>
-    <t>09/15/1901</t>
-  </si>
-  <si>
-    <t>02/24/1938</t>
-  </si>
-  <si>
-    <t>04/22/1944</t>
-  </si>
-  <si>
-    <t>08/22/1980</t>
-  </si>
-  <si>
-    <t>10/20/1985</t>
-  </si>
-  <si>
-    <t>03/19/1983</t>
-  </si>
-  <si>
-    <t>12/14/1983</t>
-  </si>
-  <si>
     <t>Departamento</t>
   </si>
   <si>
@@ -277,13 +85,316 @@
   </si>
   <si>
     <t>Regular</t>
+  </si>
+  <si>
+    <t>fconstruccion</t>
+  </si>
+  <si>
+    <t>1926-10-23</t>
+  </si>
+  <si>
+    <t>1941-11-10</t>
+  </si>
+  <si>
+    <t>1922-10-17</t>
+  </si>
+  <si>
+    <t>1985-06-29</t>
+  </si>
+  <si>
+    <t>1940-01-13</t>
+  </si>
+  <si>
+    <t>1985-07-21</t>
+  </si>
+  <si>
+    <t>1920-01-04</t>
+  </si>
+  <si>
+    <t>1993-12-06</t>
+  </si>
+  <si>
+    <t>2002-12-09</t>
+  </si>
+  <si>
+    <t>1920-04-25</t>
+  </si>
+  <si>
+    <t>1908-06-19</t>
+  </si>
+  <si>
+    <t>1967-03-31</t>
+  </si>
+  <si>
+    <t>1976-02-23</t>
+  </si>
+  <si>
+    <t>1950-12-25</t>
+  </si>
+  <si>
+    <t>1958-04-22</t>
+  </si>
+  <si>
+    <t>1929-04-07</t>
+  </si>
+  <si>
+    <t>1966-12-22</t>
+  </si>
+  <si>
+    <t>2016-11-12</t>
+  </si>
+  <si>
+    <t>1982-12-06</t>
+  </si>
+  <si>
+    <t>1970-09-08</t>
+  </si>
+  <si>
+    <t>1980-12-23</t>
+  </si>
+  <si>
+    <t>1954-04-21</t>
+  </si>
+  <si>
+    <t>1997-12-27</t>
+  </si>
+  <si>
+    <t>1912-10-26</t>
+  </si>
+  <si>
+    <t>1931-08-25</t>
+  </si>
+  <si>
+    <t>1901-09-21</t>
+  </si>
+  <si>
+    <t>1965-07-11</t>
+  </si>
+  <si>
+    <t>1996-10-04</t>
+  </si>
+  <si>
+    <t>1914-01-23</t>
+  </si>
+  <si>
+    <t>2010-11-10</t>
+  </si>
+  <si>
+    <t>1916-08-28</t>
+  </si>
+  <si>
+    <t>1905-02-27</t>
+  </si>
+  <si>
+    <t>1911-01-30</t>
+  </si>
+  <si>
+    <t>1933-09-28</t>
+  </si>
+  <si>
+    <t>1949-08-10</t>
+  </si>
+  <si>
+    <t>1990-04-21</t>
+  </si>
+  <si>
+    <t>2002-12-12</t>
+  </si>
+  <si>
+    <t>1999-02-15</t>
+  </si>
+  <si>
+    <t>1980-08-09</t>
+  </si>
+  <si>
+    <t>1984-01-26</t>
+  </si>
+  <si>
+    <t>1938-11-24</t>
+  </si>
+  <si>
+    <t>1973-05-23</t>
+  </si>
+  <si>
+    <t>1932-09-08</t>
+  </si>
+  <si>
+    <t>2003-08-26</t>
+  </si>
+  <si>
+    <t>2015-08-23</t>
+  </si>
+  <si>
+    <t>1982-01-07</t>
+  </si>
+  <si>
+    <t>1958-04-20</t>
+  </si>
+  <si>
+    <t>1999-01-07</t>
+  </si>
+  <si>
+    <t>1991-10-03</t>
+  </si>
+  <si>
+    <t>1987-12-07</t>
+  </si>
+  <si>
+    <t>1968-12-15</t>
+  </si>
+  <si>
+    <t>1933-05-11</t>
+  </si>
+  <si>
+    <t>1904-08-23</t>
+  </si>
+  <si>
+    <t>2005-11-22</t>
+  </si>
+  <si>
+    <t>1934-03-13</t>
+  </si>
+  <si>
+    <t>1933-05-30</t>
+  </si>
+  <si>
+    <t>1908-07-26</t>
+  </si>
+  <si>
+    <t>1972-12-23</t>
+  </si>
+  <si>
+    <t>1988-01-12</t>
+  </si>
+  <si>
+    <t>1929-10-01</t>
+  </si>
+  <si>
+    <t>1970-07-27</t>
+  </si>
+  <si>
+    <t>1921-04-24</t>
+  </si>
+  <si>
+    <t>1970-07-22</t>
+  </si>
+  <si>
+    <t>2010-03-06</t>
+  </si>
+  <si>
+    <t>1976-04-19</t>
+  </si>
+  <si>
+    <t>1954-12-20</t>
+  </si>
+  <si>
+    <t>1965-11-11</t>
+  </si>
+  <si>
+    <t>1926-12-27</t>
+  </si>
+  <si>
+    <t>1918-07-30</t>
+  </si>
+  <si>
+    <t>1923-12-28</t>
+  </si>
+  <si>
+    <t>1906-05-01</t>
+  </si>
+  <si>
+    <t>1973-08-15</t>
+  </si>
+  <si>
+    <t>1924-07-25</t>
+  </si>
+  <si>
+    <t>1977-03-25</t>
+  </si>
+  <si>
+    <t>1927-08-28</t>
+  </si>
+  <si>
+    <t>1925-06-01</t>
+  </si>
+  <si>
+    <t>2008-11-03</t>
+  </si>
+  <si>
+    <t>1976-11-06</t>
+  </si>
+  <si>
+    <t>1947-01-01</t>
+  </si>
+  <si>
+    <t>1987-10-13</t>
+  </si>
+  <si>
+    <t>1922-09-12</t>
+  </si>
+  <si>
+    <t>1924-08-30</t>
+  </si>
+  <si>
+    <t>1953-09-18</t>
+  </si>
+  <si>
+    <t>1932-10-02</t>
+  </si>
+  <si>
+    <t>1964-01-26</t>
+  </si>
+  <si>
+    <t>1957-05-03</t>
+  </si>
+  <si>
+    <t>1922-11-22</t>
+  </si>
+  <si>
+    <t>1975-03-03</t>
+  </si>
+  <si>
+    <t>2007-05-15</t>
+  </si>
+  <si>
+    <t>1950-06-24</t>
+  </si>
+  <si>
+    <t>2000-08-19</t>
+  </si>
+  <si>
+    <t>1962-08-14</t>
+  </si>
+  <si>
+    <t>1932-01-03</t>
+  </si>
+  <si>
+    <t>1923-05-17</t>
+  </si>
+  <si>
+    <t>1926-02-18</t>
+  </si>
+  <si>
+    <t>1969-09-18</t>
+  </si>
+  <si>
+    <t>1964-07-26</t>
+  </si>
+  <si>
+    <t>1922-06-03</t>
+  </si>
+  <si>
+    <t>1964-02-11</t>
+  </si>
+  <si>
+    <t>1924-11-04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +528,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -716,7 +832,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -759,17 +875,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -807,6 +922,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1091,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="L101" sqref="L2:L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,16 +1256,16 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1160,10 +1276,10 @@
         <v>839650</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1">
         <v>8</v>
@@ -1184,10 +1300,10 @@
         <v>3855409</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="M2" s="1">
         <v>30</v>
@@ -1207,10 +1323,10 @@
         <v>4025424</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1">
         <v>9</v>
@@ -1231,10 +1347,10 @@
         <v>2313687</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" s="2">
-        <v>34701</v>
+        <v>19</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M3" s="1">
         <v>7</v>
@@ -1254,10 +1370,10 @@
         <v>1482542</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1278,10 +1394,10 @@
         <v>8401652</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="M4" s="1">
         <v>32</v>
@@ -1301,10 +1417,10 @@
         <v>8131661</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1325,10 +1441,10 @@
         <v>1727448</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="M5" s="1">
         <v>32</v>
@@ -1348,10 +1464,10 @@
         <v>8563825</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>9</v>
@@ -1372,10 +1488,10 @@
         <v>6144588</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="M6" s="1">
         <v>41</v>
@@ -1395,10 +1511,10 @@
         <v>6533886</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1">
         <v>7</v>
@@ -1419,10 +1535,10 @@
         <v>7615260</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="M7" s="1">
         <v>88</v>
@@ -1442,10 +1558,10 @@
         <v>543989</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>9</v>
@@ -1466,10 +1582,10 @@
         <v>6033249</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" s="2">
-        <v>39604</v>
+        <v>20</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M8" s="1">
         <v>88</v>
@@ -1489,10 +1605,10 @@
         <v>8077935</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -1513,10 +1629,10 @@
         <v>7735471</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="2">
-        <v>25667</v>
+        <v>21</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="M9" s="1">
         <v>25</v>
@@ -1536,10 +1652,10 @@
         <v>8502508</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1560,10 +1676,10 @@
         <v>2544344</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="M10" s="1">
         <v>30</v>
@@ -1583,10 +1699,10 @@
         <v>8579159</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -1607,10 +1723,10 @@
         <v>1140498</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" s="2">
-        <v>26850</v>
+        <v>19</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="M11" s="1">
         <v>71</v>
@@ -1630,10 +1746,10 @@
         <v>4599913</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
@@ -1654,10 +1770,10 @@
         <v>122934</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="2">
-        <v>41913</v>
+        <v>20</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="M12" s="1">
         <v>8</v>
@@ -1677,10 +1793,10 @@
         <v>5330788</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
@@ -1701,10 +1817,10 @@
         <v>586981</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="M13" s="1">
         <v>99</v>
@@ -1724,10 +1840,10 @@
         <v>953688</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1">
         <v>9</v>
@@ -1748,10 +1864,10 @@
         <v>5762144</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="M14" s="1">
         <v>52</v>
@@ -1771,10 +1887,10 @@
         <v>1698373</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1795,10 +1911,10 @@
         <v>965030</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="M15" s="1">
         <v>13</v>
@@ -1818,10 +1934,10 @@
         <v>4367616</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
@@ -1842,10 +1958,10 @@
         <v>3058179</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="M16" s="1">
         <v>65</v>
@@ -1865,10 +1981,10 @@
         <v>4622230</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1">
         <v>9</v>
@@ -1889,10 +2005,10 @@
         <v>485407</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="2">
-        <v>17445</v>
+        <v>21</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="M17" s="1">
         <v>61</v>
@@ -1912,10 +2028,10 @@
         <v>2222846</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1">
         <v>9</v>
@@ -1936,10 +2052,10 @@
         <v>8818083</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L18" s="2">
-        <v>20465</v>
+        <v>18</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="M18" s="1">
         <v>89</v>
@@ -1959,10 +2075,10 @@
         <v>5894717</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1">
         <v>4</v>
@@ -1983,10 +2099,10 @@
         <v>2442555</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="M19" s="1">
         <v>39</v>
@@ -2006,10 +2122,10 @@
         <v>4241740</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1">
         <v>7</v>
@@ -2030,10 +2146,10 @@
         <v>2329728</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="M20" s="1">
         <v>64</v>
@@ -2053,10 +2169,10 @@
         <v>7022877</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -2077,10 +2193,10 @@
         <v>5316284</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="M21" s="1">
         <v>77</v>
@@ -2100,10 +2216,10 @@
         <v>4247465</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
@@ -2124,10 +2240,10 @@
         <v>156671</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L22" s="2">
-        <v>29927</v>
+        <v>18</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="M22" s="1">
         <v>63</v>
@@ -2147,10 +2263,10 @@
         <v>7198182</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1">
         <v>5</v>
@@ -2171,10 +2287,10 @@
         <v>8564334</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L23" s="2">
-        <v>1134</v>
+        <v>19</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="M23" s="1">
         <v>36</v>
@@ -2194,10 +2310,10 @@
         <v>4329136</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1">
         <v>4</v>
@@ -2218,10 +2334,10 @@
         <v>7261277</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L24" s="2">
-        <v>29011</v>
+        <v>20</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="M24" s="1">
         <v>58</v>
@@ -2241,10 +2357,10 @@
         <v>6890835</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E25" s="1">
         <v>9</v>
@@ -2265,10 +2381,10 @@
         <v>6638724</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="M25" s="1">
         <v>38</v>
@@ -2288,10 +2404,10 @@
         <v>9092447</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -2312,10 +2428,10 @@
         <v>5588062</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L26" s="2">
-        <v>30294</v>
+        <v>18</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="M26" s="1">
         <v>17</v>
@@ -2335,10 +2451,10 @@
         <v>744034</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -2359,10 +2475,10 @@
         <v>6986930</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="M27" s="1">
         <v>3</v>
@@ -2382,10 +2498,10 @@
         <v>5098035</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1">
         <v>8</v>
@@ -2406,10 +2522,10 @@
         <v>6618864</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L28" s="2">
-        <v>32269</v>
+        <v>20</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="M28" s="1">
         <v>3</v>
@@ -2429,10 +2545,10 @@
         <v>5473086</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E29" s="1">
         <v>6</v>
@@ -2453,10 +2569,10 @@
         <v>1103687</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="M29" s="1">
         <v>82</v>
@@ -2476,10 +2592,10 @@
         <v>9141809</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E30" s="1">
         <v>7</v>
@@ -2500,10 +2616,10 @@
         <v>4421786</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L30" s="2">
-        <v>26060</v>
+        <v>18</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="M30" s="1">
         <v>46</v>
@@ -2523,10 +2639,10 @@
         <v>5278147</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1">
         <v>8</v>
@@ -2547,10 +2663,10 @@
         <v>5282771</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L31" s="2">
-        <v>32881</v>
+        <v>19</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="M31" s="1">
         <v>40</v>
@@ -2570,10 +2686,10 @@
         <v>7178597</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1">
         <v>9</v>
@@ -2594,10 +2710,10 @@
         <v>9509867</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="M32" s="1">
         <v>57</v>
@@ -2617,10 +2733,10 @@
         <v>727931</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -2641,10 +2757,10 @@
         <v>4177107</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L33" s="2">
-        <v>42037</v>
+        <v>21</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="M33" s="1">
         <v>36</v>
@@ -2664,10 +2780,10 @@
         <v>1011919</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1">
         <v>7</v>
@@ -2688,10 +2804,10 @@
         <v>1417792</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="M34" s="1">
         <v>97</v>
@@ -2711,10 +2827,10 @@
         <v>3508120</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -2735,10 +2851,10 @@
         <v>7425129</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="M35" s="1">
         <v>9</v>
@@ -2758,10 +2874,10 @@
         <v>7508612</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E36" s="1">
         <v>8</v>
@@ -2782,10 +2898,10 @@
         <v>2945306</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="M36" s="1">
         <v>97</v>
@@ -2805,10 +2921,10 @@
         <v>7383626</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1">
         <v>6</v>
@@ -2829,10 +2945,10 @@
         <v>2992553</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L37" s="2">
-        <v>4444</v>
+        <v>21</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="M37" s="1">
         <v>93</v>
@@ -2852,10 +2968,10 @@
         <v>7684621</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E38" s="1">
         <v>4</v>
@@ -2876,10 +2992,10 @@
         <v>3059291</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="M38" s="1">
         <v>29</v>
@@ -2899,10 +3015,10 @@
         <v>6330172</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E39" s="1">
         <v>4</v>
@@ -2923,10 +3039,10 @@
         <v>9365375</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="M39" s="1">
         <v>15</v>
@@ -2946,10 +3062,10 @@
         <v>9681549</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E40" s="1">
         <v>3</v>
@@ -2970,10 +3086,10 @@
         <v>9781578</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="M40" s="1">
         <v>90</v>
@@ -2993,10 +3109,10 @@
         <v>7184552</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E41" s="1">
         <v>7</v>
@@ -3017,10 +3133,10 @@
         <v>5181403</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="M41" s="1">
         <v>69</v>
@@ -3040,10 +3156,10 @@
         <v>3361320</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
@@ -3064,10 +3180,10 @@
         <v>1773227</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="M42" s="1">
         <v>69</v>
@@ -3087,10 +3203,10 @@
         <v>1205949</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E43" s="1">
         <v>5</v>
@@ -3111,10 +3227,10 @@
         <v>9525284</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L43" s="2">
-        <v>21103</v>
+        <v>19</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="M43" s="1">
         <v>33</v>
@@ -3134,10 +3250,10 @@
         <v>5868375</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E44" s="1">
         <v>6</v>
@@ -3158,10 +3274,10 @@
         <v>9675817</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="M44" s="1">
         <v>86</v>
@@ -3181,10 +3297,10 @@
         <v>9444432</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -3205,10 +3321,10 @@
         <v>5083990</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="M45" s="1">
         <v>6</v>
@@ -3228,10 +3344,10 @@
         <v>7511796</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -3252,10 +3368,10 @@
         <v>9205700</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L46" s="2">
-        <v>16661</v>
+        <v>18</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="M46" s="1">
         <v>51</v>
@@ -3275,10 +3391,10 @@
         <v>5631737</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E47" s="1">
         <v>8</v>
@@ -3299,10 +3415,10 @@
         <v>7830469</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="M47" s="1">
         <v>52</v>
@@ -3322,10 +3438,10 @@
         <v>9517309</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E48" s="1">
         <v>7</v>
@@ -3346,10 +3462,10 @@
         <v>5099092</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="M48" s="1">
         <v>94</v>
@@ -3369,10 +3485,10 @@
         <v>8262687</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
@@ -3393,10 +3509,10 @@
         <v>5990070</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="M49" s="1">
         <v>11</v>
@@ -3416,10 +3532,10 @@
         <v>782164</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E50" s="1">
         <v>7</v>
@@ -3440,10 +3556,10 @@
         <v>9034188</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L50" s="2">
-        <v>13063</v>
+        <v>18</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="M50" s="1">
         <v>55</v>
@@ -3463,10 +3579,10 @@
         <v>7099764</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E51" s="1">
         <v>8</v>
@@ -3487,10 +3603,10 @@
         <v>6891723</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L51" s="2">
-        <v>40190</v>
+        <v>19</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="M51" s="1">
         <v>77</v>
@@ -3510,10 +3626,10 @@
         <v>7887926</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -3534,10 +3650,10 @@
         <v>4044940</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="M52" s="1">
         <v>15</v>
@@ -3557,10 +3673,10 @@
         <v>7419211</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E53" s="1">
         <v>3</v>
@@ -3581,10 +3697,10 @@
         <v>3125164</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L53" s="2">
-        <v>6674</v>
+        <v>21</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="M53" s="1">
         <v>16</v>
@@ -3604,10 +3720,10 @@
         <v>836735</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
@@ -3628,10 +3744,10 @@
         <v>8778125</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="M54" s="1">
         <v>27</v>
@@ -3651,10 +3767,10 @@
         <v>1201737</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -3675,10 +3791,10 @@
         <v>1602447</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="M55" s="1">
         <v>85</v>
@@ -3698,10 +3814,10 @@
         <v>1775276</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E56" s="1">
         <v>7</v>
@@ -3722,10 +3838,10 @@
         <v>5214413</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="M56" s="1">
         <v>47</v>
@@ -3745,10 +3861,10 @@
         <v>6174603</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E57" s="1">
         <v>9</v>
@@ -3769,10 +3885,10 @@
         <v>5764208</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="M57" s="1">
         <v>39</v>
@@ -3792,10 +3908,10 @@
         <v>6761351</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E58" s="1">
         <v>9</v>
@@ -3816,10 +3932,10 @@
         <v>7188396</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="M58" s="1">
         <v>14</v>
@@ -3839,10 +3955,10 @@
         <v>8905594</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E59" s="1">
         <v>5</v>
@@ -3863,10 +3979,10 @@
         <v>199324</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="M59" s="1">
         <v>8</v>
@@ -3886,10 +4002,10 @@
         <v>1023438</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E60" s="1">
         <v>6</v>
@@ -3910,10 +4026,10 @@
         <v>443031</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="M60" s="1">
         <v>34</v>
@@ -3933,10 +4049,10 @@
         <v>5744613</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
@@ -3957,10 +4073,10 @@
         <v>622628</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L61" s="2">
-        <v>29323</v>
+        <v>21</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="M61" s="1">
         <v>56</v>
@@ -3980,10 +4096,10 @@
         <v>1690463</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E62" s="1">
         <v>7</v>
@@ -4004,10 +4120,10 @@
         <v>4487171</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L62" s="2">
-        <v>41699</v>
+        <v>18</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="M62" s="1">
         <v>71</v>
@@ -4027,10 +4143,10 @@
         <v>5112501</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
@@ -4051,10 +4167,10 @@
         <v>200448</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="M63" s="1">
         <v>58</v>
@@ -4074,10 +4190,10 @@
         <v>9756120</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E64" s="1">
         <v>3</v>
@@ -4098,10 +4214,10 @@
         <v>4575691</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="M64" s="1">
         <v>64</v>
@@ -4121,10 +4237,10 @@
         <v>7300289</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E65" s="1">
         <v>5</v>
@@ -4145,10 +4261,10 @@
         <v>8815752</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="M65" s="1">
         <v>61</v>
@@ -4168,10 +4284,10 @@
         <v>695967</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E66" s="1">
         <v>4</v>
@@ -4192,10 +4308,10 @@
         <v>3593864</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="M66" s="1">
         <v>81</v>
@@ -4215,10 +4331,10 @@
         <v>1722581</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -4239,10 +4355,10 @@
         <v>8983727</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="M67" s="1">
         <v>80</v>
@@ -4262,10 +4378,10 @@
         <v>8658020</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E68" s="1">
         <v>5</v>
@@ -4286,10 +4402,10 @@
         <v>4278398</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="M68" s="1">
         <v>99</v>
@@ -4309,10 +4425,10 @@
         <v>6164084</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E69" s="1">
         <v>4</v>
@@ -4333,10 +4449,10 @@
         <v>6276111</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L69" s="2">
-        <v>3328</v>
+        <v>21</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="M69" s="1">
         <v>43</v>
@@ -4356,10 +4472,10 @@
         <v>6625591</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E70" s="1">
         <v>7</v>
@@ -4380,10 +4496,10 @@
         <v>769888</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L70" s="2">
-        <v>374</v>
+        <v>18</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="M70" s="1">
         <v>88</v>
@@ -4403,10 +4519,10 @@
         <v>5837335</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E71" s="1">
         <v>8</v>
@@ -4427,10 +4543,10 @@
         <v>9401717</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>59</v>
+        <v>19</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="M71" s="1">
         <v>26</v>
@@ -4450,10 +4566,10 @@
         <v>4579166</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E72" s="1">
         <v>5</v>
@@ -4474,10 +4590,10 @@
         <v>8217400</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="M72" s="1">
         <v>68</v>
@@ -4497,10 +4613,10 @@
         <v>5686610</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E73" s="1">
         <v>2</v>
@@ -4521,10 +4637,10 @@
         <v>31793</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L73" s="2">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="M73" s="1">
         <v>79</v>
@@ -4544,10 +4660,10 @@
         <v>2074164</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E74" s="1">
         <v>3</v>
@@ -4568,10 +4684,10 @@
         <v>1774511</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>61</v>
+        <v>18</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="M74" s="1">
         <v>87</v>
@@ -4591,10 +4707,10 @@
         <v>6167071</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E75" s="1">
         <v>3</v>
@@ -4615,10 +4731,10 @@
         <v>4635627</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L75" s="2">
-        <v>41827</v>
+        <v>19</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="M75" s="1">
         <v>41</v>
@@ -4638,10 +4754,10 @@
         <v>1236071</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E76" s="1">
         <v>7</v>
@@ -4662,10 +4778,10 @@
         <v>635498</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>62</v>
+        <v>20</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="M76" s="1">
         <v>38</v>
@@ -4685,10 +4801,10 @@
         <v>5083261</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -4709,10 +4825,10 @@
         <v>618671</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L77" s="2">
-        <v>19455</v>
+        <v>21</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="M77" s="1">
         <v>34</v>
@@ -4732,10 +4848,10 @@
         <v>3147044</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E78" s="1">
         <v>5</v>
@@ -4756,10 +4872,10 @@
         <v>8455647</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L78" s="2">
-        <v>5328</v>
+        <v>18</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="M78" s="1">
         <v>67</v>
@@ -4779,10 +4895,10 @@
         <v>3510641</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E79" s="1">
         <v>0</v>
@@ -4803,10 +4919,10 @@
         <v>2289384</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L79" s="2">
-        <v>31355</v>
+        <v>19</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="M79" s="1">
         <v>17</v>
@@ -4826,10 +4942,10 @@
         <v>7572699</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -4850,10 +4966,10 @@
         <v>848666</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="M80" s="1">
         <v>9</v>
@@ -4873,10 +4989,10 @@
         <v>2295162</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E81" s="1">
         <v>6</v>
@@ -4897,10 +5013,10 @@
         <v>518005</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L81" s="2">
-        <v>18851</v>
+        <v>21</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="M81" s="1">
         <v>96</v>
@@ -4920,10 +5036,10 @@
         <v>1261616</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E82" s="1">
         <v>4</v>
@@ -4944,10 +5060,10 @@
         <v>4361391</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>64</v>
+        <v>18</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="M82" s="1">
         <v>36</v>
@@ -4967,10 +5083,10 @@
         <v>4422327</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E83" s="1">
         <v>7</v>
@@ -4991,10 +5107,10 @@
         <v>5443572</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="M83" s="1">
         <v>67</v>
@@ -5014,10 +5130,10 @@
         <v>3206219</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E84" s="1">
         <v>9</v>
@@ -5038,10 +5154,10 @@
         <v>3785177</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L84" s="2">
-        <v>7733</v>
+        <v>20</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="M84" s="1">
         <v>13</v>
@@ -5061,10 +5177,10 @@
         <v>3715032</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E85" s="1">
         <v>8</v>
@@ -5085,10 +5201,10 @@
         <v>3904983</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L85" s="2">
-        <v>25661</v>
+        <v>21</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="M85" s="1">
         <v>68</v>
@@ -5108,10 +5224,10 @@
         <v>4003915</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E86" s="1">
         <v>2</v>
@@ -5132,10 +5248,10 @@
         <v>3573552</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>66</v>
+        <v>18</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="M86" s="1">
         <v>24</v>
@@ -5155,10 +5271,10 @@
         <v>6209279</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E87" s="1">
         <v>0</v>
@@ -5179,10 +5295,10 @@
         <v>9020415</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="M87" s="1">
         <v>64</v>
@@ -5202,10 +5318,10 @@
         <v>2996442</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -5226,10 +5342,10 @@
         <v>4919568</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L88" s="2">
-        <v>25148</v>
+        <v>20</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="M88" s="1">
         <v>42</v>
@@ -5249,10 +5365,10 @@
         <v>981222</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E89" s="1">
         <v>3</v>
@@ -5273,10 +5389,10 @@
         <v>7754497</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>68</v>
+        <v>21</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="M89" s="1">
         <v>51</v>
@@ -5296,10 +5412,10 @@
         <v>8043049</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E90" s="1">
         <v>2</v>
@@ -5320,10 +5436,10 @@
         <v>4491200</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L90" s="2">
-        <v>31999</v>
+        <v>18</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="M90" s="1">
         <v>66</v>
@@ -5343,10 +5459,10 @@
         <v>4339617</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -5367,10 +5483,10 @@
         <v>8633279</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L91" s="2">
-        <v>20912</v>
+        <v>19</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="M91" s="1">
         <v>56</v>
@@ -5390,10 +5506,10 @@
         <v>9596689</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E92" s="1">
         <v>5</v>
@@ -5414,10 +5530,10 @@
         <v>2422695</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>69</v>
+        <v>20</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="M92" s="1">
         <v>48</v>
@@ -5437,10 +5553,10 @@
         <v>7701298</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E93" s="1">
         <v>9</v>
@@ -5461,10 +5577,10 @@
         <v>2291045</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>70</v>
+        <v>21</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="M93" s="1">
         <v>6</v>
@@ -5484,10 +5600,10 @@
         <v>1704322</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E94" s="1">
         <v>2</v>
@@ -5508,10 +5624,10 @@
         <v>5603463</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="M94" s="1">
         <v>6</v>
@@ -5531,10 +5647,10 @@
         <v>2188473</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E95" s="1">
         <v>7</v>
@@ -5555,10 +5671,10 @@
         <v>2401591</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L95" s="2">
-        <v>6331</v>
+        <v>19</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="M95" s="1">
         <v>40</v>
@@ -5578,10 +5694,10 @@
         <v>5429162</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E96" s="1">
         <v>6</v>
@@ -5602,10 +5718,10 @@
         <v>3535654</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>72</v>
+        <v>20</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="M96" s="1">
         <v>47</v>
@@ -5625,10 +5741,10 @@
         <v>1115715</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -5649,10 +5765,10 @@
         <v>4590297</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>73</v>
+        <v>21</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="M97" s="1">
         <v>32</v>
@@ -5672,10 +5788,10 @@
         <v>9502915</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -5696,10 +5812,10 @@
         <v>7123253</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>74</v>
+        <v>18</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="M98" s="1">
         <v>70</v>
@@ -5719,10 +5835,10 @@
         <v>5020494</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E99" s="1">
         <v>8</v>
@@ -5743,10 +5859,10 @@
         <v>5932830</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>75</v>
+        <v>19</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="M99" s="1">
         <v>63</v>
@@ -5766,10 +5882,10 @@
         <v>2706246</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E100" s="1">
         <v>5</v>
@@ -5790,10 +5906,10 @@
         <v>2917452</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>76</v>
+        <v>20</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="M100" s="1">
         <v>19</v>
@@ -5813,10 +5929,10 @@
         <v>1569994</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
@@ -5837,10 +5953,10 @@
         <v>8776016</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>77</v>
+        <v>21</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="M101" s="1">
         <v>93</v>
